--- a/bots/crawl_ch/output/vegi_coop_2022-12-13.xlsx
+++ b/bots/crawl_ch/output/vegi_coop_2022-12-13.xlsx
@@ -575,7 +575,7 @@
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -644,7 +644,7 @@
       <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -713,7 +713,7 @@
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -778,7 +778,7 @@
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -847,7 +847,7 @@
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -912,7 +912,7 @@
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -977,7 +977,7 @@
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -1046,7 +1046,7 @@
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -1111,7 +1111,7 @@
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -1180,7 +1180,7 @@
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -1245,7 +1245,7 @@
       <c r="N12" t="inlineStr"/>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -1310,7 +1310,7 @@
       <c r="N13" t="inlineStr"/>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -1375,7 +1375,7 @@
       <c r="N14" t="inlineStr"/>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -1444,7 +1444,7 @@
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -1513,7 +1513,7 @@
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -1582,7 +1582,7 @@
       <c r="N17" t="inlineStr"/>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -1651,7 +1651,7 @@
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -1720,7 +1720,7 @@
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -1789,7 +1789,7 @@
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -1858,7 +1858,7 @@
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -1923,7 +1923,7 @@
       <c r="N22" t="inlineStr"/>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -1992,7 +1992,7 @@
       <c r="N23" t="inlineStr"/>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -2061,7 +2061,7 @@
       <c r="N24" t="inlineStr"/>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -2126,7 +2126,7 @@
       <c r="N25" t="inlineStr"/>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -2191,7 +2191,7 @@
       <c r="N26" t="inlineStr"/>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -2260,7 +2260,7 @@
       <c r="N27" t="inlineStr"/>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -2325,7 +2325,7 @@
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -2394,7 +2394,7 @@
       <c r="N29" t="inlineStr"/>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -2463,7 +2463,7 @@
       <c r="N30" t="inlineStr"/>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -2532,7 +2532,7 @@
       <c r="N31" t="inlineStr"/>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -2605,7 +2605,7 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -2674,7 +2674,7 @@
       <c r="N33" t="inlineStr"/>
       <c r="O33" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -2743,7 +2743,7 @@
       <c r="N34" t="inlineStr"/>
       <c r="O34" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -2812,7 +2812,7 @@
       <c r="N35" t="inlineStr"/>
       <c r="O35" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -2881,7 +2881,7 @@
       <c r="N36" t="inlineStr"/>
       <c r="O36" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -2950,7 +2950,7 @@
       <c r="N37" t="inlineStr"/>
       <c r="O37" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -3019,7 +3019,7 @@
       <c r="N38" t="inlineStr"/>
       <c r="O38" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -3084,7 +3084,7 @@
       <c r="N39" t="inlineStr"/>
       <c r="O39" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -3153,7 +3153,7 @@
       <c r="N40" t="inlineStr"/>
       <c r="O40" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -3222,7 +3222,7 @@
       <c r="N41" t="inlineStr"/>
       <c r="O41" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -3291,7 +3291,7 @@
       <c r="N42" t="inlineStr"/>
       <c r="O42" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -3356,7 +3356,7 @@
       <c r="N43" t="inlineStr"/>
       <c r="O43" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -3425,7 +3425,7 @@
       <c r="N44" t="inlineStr"/>
       <c r="O44" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -3494,7 +3494,7 @@
       <c r="N45" t="inlineStr"/>
       <c r="O45" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -3559,7 +3559,7 @@
       <c r="N46" t="inlineStr"/>
       <c r="O46" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -3624,7 +3624,7 @@
       <c r="N47" t="inlineStr"/>
       <c r="O47" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -3697,7 +3697,7 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -3766,7 +3766,7 @@
       <c r="N49" t="inlineStr"/>
       <c r="O49" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -3835,7 +3835,7 @@
       <c r="N50" t="inlineStr"/>
       <c r="O50" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -3908,7 +3908,7 @@
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -3977,7 +3977,7 @@
       <c r="N52" t="inlineStr"/>
       <c r="O52" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -4046,7 +4046,7 @@
       <c r="N53" t="inlineStr"/>
       <c r="O53" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -4111,7 +4111,7 @@
       <c r="N54" t="inlineStr"/>
       <c r="O54" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -4180,7 +4180,7 @@
       <c r="N55" t="inlineStr"/>
       <c r="O55" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -4245,7 +4245,7 @@
       <c r="N56" t="inlineStr"/>
       <c r="O56" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -4310,7 +4310,7 @@
       <c r="N57" t="inlineStr"/>
       <c r="O57" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -4379,7 +4379,7 @@
       <c r="N58" t="inlineStr"/>
       <c r="O58" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -4448,7 +4448,7 @@
       <c r="N59" t="inlineStr"/>
       <c r="O59" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -4517,7 +4517,7 @@
       <c r="N60" t="inlineStr"/>
       <c r="O60" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -4582,7 +4582,7 @@
       <c r="N61" t="inlineStr"/>
       <c r="O61" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -4655,7 +4655,7 @@
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -4720,7 +4720,7 @@
       <c r="N63" t="inlineStr"/>
       <c r="O63" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -4789,7 +4789,7 @@
       <c r="N64" t="inlineStr"/>
       <c r="O64" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -4854,7 +4854,7 @@
       <c r="N65" t="inlineStr"/>
       <c r="O65" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -4923,7 +4923,7 @@
       <c r="N66" t="inlineStr"/>
       <c r="O66" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -4992,7 +4992,7 @@
       <c r="N67" t="inlineStr"/>
       <c r="O67" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -5057,7 +5057,7 @@
       <c r="N68" t="inlineStr"/>
       <c r="O68" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -5126,7 +5126,7 @@
       <c r="N69" t="inlineStr"/>
       <c r="O69" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -5195,7 +5195,7 @@
       <c r="N70" t="inlineStr"/>
       <c r="O70" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -5268,7 +5268,7 @@
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -5333,7 +5333,7 @@
       <c r="N72" t="inlineStr"/>
       <c r="O72" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -5398,7 +5398,7 @@
       <c r="N73" t="inlineStr"/>
       <c r="O73" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -5451,7 +5451,7 @@
       <c r="N74" t="inlineStr"/>
       <c r="O74" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -5520,7 +5520,7 @@
       <c r="N75" t="inlineStr"/>
       <c r="O75" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -5589,7 +5589,7 @@
       <c r="N76" t="inlineStr"/>
       <c r="O76" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -5654,7 +5654,7 @@
       <c r="N77" t="inlineStr"/>
       <c r="O77" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -5719,7 +5719,7 @@
       <c r="N78" t="inlineStr"/>
       <c r="O78" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -5788,7 +5788,7 @@
       <c r="N79" t="inlineStr"/>
       <c r="O79" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -5841,7 +5841,7 @@
       <c r="N80" t="inlineStr"/>
       <c r="O80" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -5906,7 +5906,7 @@
       <c r="N81" t="inlineStr"/>
       <c r="O81" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -5975,7 +5975,7 @@
       <c r="N82" t="inlineStr"/>
       <c r="O82" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -6040,7 +6040,7 @@
       <c r="N83" t="inlineStr"/>
       <c r="O83" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -6103,7 +6103,7 @@
       <c r="N84" t="inlineStr"/>
       <c r="O84" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -6168,7 +6168,7 @@
       <c r="N85" t="inlineStr"/>
       <c r="O85" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -6237,7 +6237,7 @@
       <c r="N86" t="inlineStr"/>
       <c r="O86" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -6306,7 +6306,7 @@
       <c r="N87" t="inlineStr"/>
       <c r="O87" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -6371,7 +6371,7 @@
       <c r="N88" t="inlineStr"/>
       <c r="O88" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -6436,7 +6436,7 @@
       <c r="N89" t="inlineStr"/>
       <c r="O89" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -6501,7 +6501,7 @@
       <c r="N90" t="inlineStr"/>
       <c r="O90" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -6550,7 +6550,7 @@
       <c r="N91" t="inlineStr"/>
       <c r="O91" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -6619,7 +6619,7 @@
       <c r="N92" t="inlineStr"/>
       <c r="O92" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -6688,7 +6688,7 @@
       <c r="N93" t="inlineStr"/>
       <c r="O93" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -6757,7 +6757,7 @@
       <c r="N94" t="inlineStr"/>
       <c r="O94" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -6826,7 +6826,7 @@
       <c r="N95" t="inlineStr"/>
       <c r="O95" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -6895,7 +6895,7 @@
       <c r="N96" t="inlineStr"/>
       <c r="O96" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -6964,7 +6964,7 @@
       <c r="N97" t="inlineStr"/>
       <c r="O97" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -7033,7 +7033,7 @@
       <c r="N98" t="inlineStr"/>
       <c r="O98" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -7098,7 +7098,7 @@
       <c r="N99" t="inlineStr"/>
       <c r="O99" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -7163,7 +7163,7 @@
       <c r="N100" t="inlineStr"/>
       <c r="O100" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -7232,7 +7232,7 @@
       <c r="N101" t="inlineStr"/>
       <c r="O101" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -7297,7 +7297,7 @@
       <c r="N102" t="inlineStr"/>
       <c r="O102" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -7366,7 +7366,7 @@
       <c r="N103" t="inlineStr"/>
       <c r="O103" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -7435,7 +7435,7 @@
       <c r="N104" t="inlineStr"/>
       <c r="O104" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -7500,7 +7500,7 @@
       <c r="N105" t="inlineStr"/>
       <c r="O105" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -7573,7 +7573,7 @@
       </c>
       <c r="O106" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -7642,7 +7642,7 @@
       <c r="N107" t="inlineStr"/>
       <c r="O107" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -7707,7 +7707,7 @@
       <c r="N108" t="inlineStr"/>
       <c r="O108" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -7776,7 +7776,7 @@
       <c r="N109" t="inlineStr"/>
       <c r="O109" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -7845,7 +7845,7 @@
       <c r="N110" t="inlineStr"/>
       <c r="O110" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -7908,7 +7908,7 @@
       <c r="N111" t="inlineStr"/>
       <c r="O111" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -7977,7 +7977,7 @@
       <c r="N112" t="inlineStr"/>
       <c r="O112" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -8046,7 +8046,7 @@
       <c r="N113" t="inlineStr"/>
       <c r="O113" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -8111,7 +8111,7 @@
       <c r="N114" t="inlineStr"/>
       <c r="O114" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -8176,7 +8176,7 @@
       <c r="N115" t="inlineStr"/>
       <c r="O115" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -8249,7 +8249,7 @@
       </c>
       <c r="O116" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -8318,7 +8318,7 @@
       <c r="N117" t="inlineStr"/>
       <c r="O117" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -8387,7 +8387,7 @@
       <c r="N118" t="inlineStr"/>
       <c r="O118" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -8460,7 +8460,7 @@
       </c>
       <c r="O119" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -8529,7 +8529,7 @@
       <c r="N120" t="inlineStr"/>
       <c r="O120" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -8594,7 +8594,7 @@
       <c r="N121" t="inlineStr"/>
       <c r="O121" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -8663,7 +8663,7 @@
       <c r="N122" t="inlineStr"/>
       <c r="O122" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -8732,7 +8732,7 @@
       <c r="N123" t="inlineStr"/>
       <c r="O123" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -8801,7 +8801,7 @@
       <c r="N124" t="inlineStr"/>
       <c r="O124" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -8870,7 +8870,7 @@
       <c r="N125" t="inlineStr"/>
       <c r="O125" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -8939,7 +8939,7 @@
       <c r="N126" t="inlineStr"/>
       <c r="O126" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -9008,7 +9008,7 @@
       <c r="N127" t="inlineStr"/>
       <c r="O127" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -9077,7 +9077,7 @@
       <c r="N128" t="inlineStr"/>
       <c r="O128" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -9150,7 +9150,7 @@
       </c>
       <c r="O129" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -9219,7 +9219,7 @@
       </c>
       <c r="O130" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -9284,7 +9284,7 @@
       <c r="N131" t="inlineStr"/>
       <c r="O131" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -9353,7 +9353,7 @@
       <c r="N132" t="inlineStr"/>
       <c r="O132" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -9422,7 +9422,7 @@
       <c r="N133" t="inlineStr"/>
       <c r="O133" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -9487,7 +9487,7 @@
       <c r="N134" t="inlineStr"/>
       <c r="O134" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -9556,7 +9556,7 @@
       <c r="N135" t="inlineStr"/>
       <c r="O135" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -9621,7 +9621,7 @@
       <c r="N136" t="inlineStr"/>
       <c r="O136" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -9690,7 +9690,7 @@
       <c r="N137" t="inlineStr"/>
       <c r="O137" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -9755,7 +9755,7 @@
       <c r="N138" t="inlineStr"/>
       <c r="O138" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -9824,7 +9824,7 @@
       <c r="N139" t="inlineStr"/>
       <c r="O139" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -9897,7 +9897,7 @@
       </c>
       <c r="O140" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -9970,7 +9970,7 @@
       </c>
       <c r="O141" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -10037,7 +10037,7 @@
       <c r="N142" t="inlineStr"/>
       <c r="O142" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -10104,7 +10104,7 @@
       <c r="N143" t="inlineStr"/>
       <c r="O143" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -10173,7 +10173,7 @@
       <c r="N144" t="inlineStr"/>
       <c r="O144" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -10242,7 +10242,7 @@
       <c r="N145" t="inlineStr"/>
       <c r="O145" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -10307,7 +10307,7 @@
       <c r="N146" t="inlineStr"/>
       <c r="O146" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -10372,7 +10372,7 @@
       <c r="N147" t="inlineStr"/>
       <c r="O147" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -10445,7 +10445,7 @@
       </c>
       <c r="O148" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -10514,7 +10514,7 @@
       <c r="N149" t="inlineStr"/>
       <c r="O149" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -10579,7 +10579,7 @@
       <c r="N150" t="inlineStr"/>
       <c r="O150" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -10648,7 +10648,7 @@
       <c r="N151" t="inlineStr"/>
       <c r="O151" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -10717,7 +10717,7 @@
       <c r="N152" t="inlineStr"/>
       <c r="O152" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -10786,7 +10786,7 @@
       <c r="N153" t="inlineStr"/>
       <c r="O153" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -10855,7 +10855,7 @@
       <c r="N154" t="inlineStr"/>
       <c r="O154" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -10920,7 +10920,7 @@
       <c r="N155" t="inlineStr"/>
       <c r="O155" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -10985,7 +10985,7 @@
       <c r="N156" t="inlineStr"/>
       <c r="O156" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -11054,7 +11054,7 @@
       <c r="N157" t="inlineStr"/>
       <c r="O157" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -11117,13 +11117,13 @@
       </c>
       <c r="M158" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Regio Kartoffeln festkochend grüne Linie 2.95 Schweizer Franken</t>
+          <t>Naturaplan Bio Regio Kartoffeln festkochend grüne Linie - Online kein Bestand 2.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N158" t="inlineStr"/>
       <c r="O158" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -11192,7 +11192,7 @@
       <c r="N159" t="inlineStr"/>
       <c r="O159" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -11259,7 +11259,7 @@
       <c r="N160" t="inlineStr"/>
       <c r="O160" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -11332,7 +11332,7 @@
       </c>
       <c r="O161" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -11385,7 +11385,7 @@
       <c r="N162" t="inlineStr"/>
       <c r="O162" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -11458,7 +11458,7 @@
       </c>
       <c r="O163" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -11527,7 +11527,7 @@
       <c r="N164" t="inlineStr"/>
       <c r="O164" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -11596,7 +11596,7 @@
       <c r="N165" t="inlineStr"/>
       <c r="O165" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -11669,7 +11669,7 @@
       </c>
       <c r="O166" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -11734,7 +11734,7 @@
       <c r="N167" t="inlineStr"/>
       <c r="O167" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -11807,7 +11807,7 @@
       </c>
       <c r="O168" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -11876,7 +11876,7 @@
       <c r="N169" t="inlineStr"/>
       <c r="O169" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -11941,7 +11941,7 @@
       <c r="N170" t="inlineStr"/>
       <c r="O170" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -12014,7 +12014,7 @@
       </c>
       <c r="O171" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -12087,7 +12087,7 @@
       </c>
       <c r="O172" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -12152,7 +12152,7 @@
       <c r="N173" t="inlineStr"/>
       <c r="O173" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -12221,7 +12221,7 @@
       <c r="N174" t="inlineStr"/>
       <c r="O174" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -12290,7 +12290,7 @@
       <c r="N175" t="inlineStr"/>
       <c r="O175" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -12355,7 +12355,7 @@
       <c r="N176" t="inlineStr"/>
       <c r="O176" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -12424,7 +12424,7 @@
       <c r="N177" t="inlineStr"/>
       <c r="O177" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -12493,7 +12493,7 @@
       <c r="N178" t="inlineStr"/>
       <c r="O178" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -12562,7 +12562,7 @@
       <c r="N179" t="inlineStr"/>
       <c r="O179" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -12631,7 +12631,7 @@
       <c r="N180" t="inlineStr"/>
       <c r="O180" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -12704,7 +12704,7 @@
       </c>
       <c r="O181" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -12773,7 +12773,7 @@
       <c r="N182" t="inlineStr"/>
       <c r="O182" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -12836,7 +12836,7 @@
       <c r="N183" t="inlineStr"/>
       <c r="O183" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -12905,7 +12905,7 @@
       <c r="N184" t="inlineStr"/>
       <c r="O184" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -12978,7 +12978,7 @@
       </c>
       <c r="O185" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -13047,7 +13047,7 @@
       <c r="N186" t="inlineStr"/>
       <c r="O186" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -13120,7 +13120,7 @@
       </c>
       <c r="O187" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -13193,7 +13193,7 @@
       </c>
       <c r="O188" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -13262,7 +13262,7 @@
       <c r="N189" t="inlineStr"/>
       <c r="O189" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -13331,7 +13331,7 @@
       <c r="N190" t="inlineStr"/>
       <c r="O190" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -13400,7 +13400,7 @@
       <c r="N191" t="inlineStr"/>
       <c r="O191" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -13469,7 +13469,7 @@
       <c r="N192" t="inlineStr"/>
       <c r="O192" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -13538,7 +13538,7 @@
       <c r="N193" t="inlineStr"/>
       <c r="O193" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -13605,7 +13605,7 @@
       <c r="N194" t="inlineStr"/>
       <c r="O194" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -13674,7 +13674,7 @@
       <c r="N195" t="inlineStr"/>
       <c r="O195" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -13727,7 +13727,7 @@
       <c r="N196" t="inlineStr"/>
       <c r="O196" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -13792,7 +13792,7 @@
       <c r="N197" t="inlineStr"/>
       <c r="O197" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -13865,7 +13865,7 @@
       </c>
       <c r="O198" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -13934,7 +13934,7 @@
       <c r="N199" t="inlineStr"/>
       <c r="O199" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -14003,7 +14003,7 @@
       <c r="N200" t="inlineStr"/>
       <c r="O200" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -14072,7 +14072,7 @@
       <c r="N201" t="inlineStr"/>
       <c r="O201" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -14145,7 +14145,7 @@
       </c>
       <c r="O202" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -14218,7 +14218,7 @@
       </c>
       <c r="O203" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -14283,7 +14283,7 @@
       <c r="N204" t="inlineStr"/>
       <c r="O204" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -14352,7 +14352,7 @@
       <c r="N205" t="inlineStr"/>
       <c r="O205" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -14421,7 +14421,7 @@
       <c r="N206" t="inlineStr"/>
       <c r="O206" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -14490,7 +14490,7 @@
       <c r="N207" t="inlineStr"/>
       <c r="O207" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -14555,7 +14555,7 @@
       <c r="N208" t="inlineStr"/>
       <c r="O208" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -14620,7 +14620,7 @@
       <c r="N209" t="inlineStr"/>
       <c r="O209" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -14685,7 +14685,7 @@
       <c r="N210" t="inlineStr"/>
       <c r="O210" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -14754,7 +14754,7 @@
       <c r="N211" t="inlineStr"/>
       <c r="O211" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -14801,7 +14801,7 @@
       <c r="N212" t="inlineStr"/>
       <c r="O212" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -14870,7 +14870,7 @@
       <c r="N213" t="inlineStr"/>
       <c r="O213" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -14943,7 +14943,7 @@
       </c>
       <c r="O214" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -15008,7 +15008,7 @@
       <c r="N215" t="inlineStr"/>
       <c r="O215" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -15081,7 +15081,7 @@
       </c>
       <c r="O216" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -15154,7 +15154,7 @@
       </c>
       <c r="O217" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -15223,7 +15223,7 @@
       <c r="N218" t="inlineStr"/>
       <c r="O218" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -15292,7 +15292,7 @@
       <c r="N219" t="inlineStr"/>
       <c r="O219" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -15365,7 +15365,7 @@
       </c>
       <c r="O220" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -15434,7 +15434,7 @@
       <c r="N221" t="inlineStr"/>
       <c r="O221" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -15503,7 +15503,7 @@
       </c>
       <c r="O222" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -15568,7 +15568,7 @@
       <c r="N223" t="inlineStr"/>
       <c r="O223" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -15633,7 +15633,7 @@
       <c r="N224" t="inlineStr"/>
       <c r="O224" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -15698,7 +15698,7 @@
       <c r="N225" t="inlineStr"/>
       <c r="O225" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -15771,7 +15771,7 @@
       </c>
       <c r="O226" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -15840,7 +15840,7 @@
       <c r="N227" t="inlineStr"/>
       <c r="O227" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -15905,7 +15905,7 @@
       <c r="N228" t="inlineStr"/>
       <c r="O228" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -15974,7 +15974,7 @@
       <c r="N229" t="inlineStr"/>
       <c r="O229" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -16047,7 +16047,7 @@
       </c>
       <c r="O230" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -16120,7 +16120,7 @@
       </c>
       <c r="O231" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -16193,7 +16193,7 @@
       </c>
       <c r="O232" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -16258,7 +16258,7 @@
       <c r="N233" t="inlineStr"/>
       <c r="O233" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -16327,7 +16327,7 @@
       <c r="N234" t="inlineStr"/>
       <c r="O234" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -16392,7 +16392,7 @@
       <c r="N235" t="inlineStr"/>
       <c r="O235" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -16461,7 +16461,7 @@
       <c r="N236" t="inlineStr"/>
       <c r="O236" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -16530,7 +16530,7 @@
       <c r="N237" t="inlineStr"/>
       <c r="O237" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -16595,7 +16595,7 @@
       <c r="N238" t="inlineStr"/>
       <c r="O238" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -16664,7 +16664,7 @@
       <c r="N239" t="inlineStr"/>
       <c r="O239" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -16733,7 +16733,7 @@
       <c r="N240" t="inlineStr"/>
       <c r="O240" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -16806,7 +16806,7 @@
       </c>
       <c r="O241" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -16879,7 +16879,7 @@
       </c>
       <c r="O242" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -16952,7 +16952,7 @@
       </c>
       <c r="O243" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -17021,7 +17021,7 @@
       <c r="N244" t="inlineStr"/>
       <c r="O244" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -17086,7 +17086,7 @@
       <c r="N245" t="inlineStr"/>
       <c r="O245" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -17159,7 +17159,7 @@
       </c>
       <c r="O246" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -17228,7 +17228,7 @@
       <c r="N247" t="inlineStr"/>
       <c r="O247" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -17297,7 +17297,7 @@
       <c r="N248" t="inlineStr"/>
       <c r="O248" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -17366,7 +17366,7 @@
       <c r="N249" t="inlineStr"/>
       <c r="O249" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -17439,7 +17439,7 @@
       </c>
       <c r="O250" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -17512,7 +17512,7 @@
       </c>
       <c r="O251" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -17585,7 +17585,7 @@
       </c>
       <c r="O252" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -17658,7 +17658,7 @@
       </c>
       <c r="O253" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -17731,7 +17731,7 @@
       </c>
       <c r="O254" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -17796,7 +17796,7 @@
       <c r="N255" t="inlineStr"/>
       <c r="O255" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -17869,7 +17869,7 @@
       </c>
       <c r="O256" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -17938,7 +17938,7 @@
       <c r="N257" t="inlineStr"/>
       <c r="O257" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -18003,7 +18003,7 @@
       <c r="N258" t="inlineStr"/>
       <c r="O258" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -18076,7 +18076,7 @@
       </c>
       <c r="O259" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -18145,7 +18145,7 @@
       <c r="N260" t="inlineStr"/>
       <c r="O260" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -18210,7 +18210,7 @@
       <c r="N261" t="inlineStr"/>
       <c r="O261" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -18275,7 +18275,7 @@
       <c r="N262" t="inlineStr"/>
       <c r="O262" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -18348,7 +18348,7 @@
       </c>
       <c r="O263" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -18421,7 +18421,7 @@
       </c>
       <c r="O264" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -18490,7 +18490,7 @@
       <c r="N265" t="inlineStr"/>
       <c r="O265" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -18559,7 +18559,7 @@
       <c r="N266" t="inlineStr"/>
       <c r="O266" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -18628,7 +18628,7 @@
       <c r="N267" t="inlineStr"/>
       <c r="O267" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -18697,7 +18697,7 @@
       <c r="N268" t="inlineStr"/>
       <c r="O268" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -18770,7 +18770,7 @@
       </c>
       <c r="O269" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -18821,7 +18821,7 @@
       <c r="N270" t="inlineStr"/>
       <c r="O270" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -18894,7 +18894,7 @@
       </c>
       <c r="O271" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -18967,7 +18967,7 @@
       </c>
       <c r="O272" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -19036,7 +19036,7 @@
       <c r="N273" t="inlineStr"/>
       <c r="O273" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -19105,7 +19105,7 @@
       <c r="N274" t="inlineStr"/>
       <c r="O274" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -19174,7 +19174,7 @@
       <c r="N275" t="inlineStr"/>
       <c r="O275" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -19243,7 +19243,7 @@
       <c r="N276" t="inlineStr"/>
       <c r="O276" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -19316,7 +19316,7 @@
       </c>
       <c r="O277" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -19385,7 +19385,7 @@
       <c r="N278" t="inlineStr"/>
       <c r="O278" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -19454,7 +19454,7 @@
       <c r="N279" t="inlineStr"/>
       <c r="O279" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -19519,7 +19519,7 @@
       <c r="N280" t="inlineStr"/>
       <c r="O280" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -19592,7 +19592,7 @@
       </c>
       <c r="O281" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -19659,7 +19659,7 @@
       <c r="N282" t="inlineStr"/>
       <c r="O282" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -19728,7 +19728,7 @@
       <c r="N283" t="inlineStr"/>
       <c r="O283" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -19801,7 +19801,7 @@
       </c>
       <c r="O284" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -19874,7 +19874,7 @@
       </c>
       <c r="O285" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -19947,7 +19947,7 @@
       </c>
       <c r="O286" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -20010,7 +20010,7 @@
       <c r="N287" t="inlineStr"/>
       <c r="O287" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -20079,7 +20079,7 @@
       <c r="N288" t="inlineStr"/>
       <c r="O288" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -20152,7 +20152,7 @@
       </c>
       <c r="O289" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -20217,7 +20217,7 @@
       <c r="N290" t="inlineStr"/>
       <c r="O290" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -20290,7 +20290,7 @@
       </c>
       <c r="O291" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -20359,7 +20359,7 @@
       <c r="N292" t="inlineStr"/>
       <c r="O292" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -20432,7 +20432,7 @@
       </c>
       <c r="O293" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -20501,7 +20501,7 @@
       <c r="N294" t="inlineStr"/>
       <c r="O294" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -20570,7 +20570,7 @@
       <c r="N295" t="inlineStr"/>
       <c r="O295" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -20635,7 +20635,7 @@
       <c r="N296" t="inlineStr"/>
       <c r="O296" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -20708,7 +20708,7 @@
       </c>
       <c r="O297" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -20773,7 +20773,7 @@
       <c r="N298" t="inlineStr"/>
       <c r="O298" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -20842,7 +20842,7 @@
       <c r="N299" t="inlineStr"/>
       <c r="O299" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -20915,7 +20915,7 @@
       </c>
       <c r="O300" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -20984,7 +20984,7 @@
       <c r="N301" t="inlineStr"/>
       <c r="O301" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -21047,7 +21047,7 @@
       <c r="N302" t="inlineStr"/>
       <c r="O302" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -21120,7 +21120,7 @@
       </c>
       <c r="O303" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -21189,7 +21189,7 @@
       <c r="N304" t="inlineStr"/>
       <c r="O304" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -21258,7 +21258,7 @@
       <c r="N305" t="inlineStr"/>
       <c r="O305" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -21331,7 +21331,7 @@
       </c>
       <c r="O306" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -21404,7 +21404,7 @@
       </c>
       <c r="O307" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -21477,7 +21477,7 @@
       </c>
       <c r="O308" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -21550,7 +21550,7 @@
       </c>
       <c r="O309" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -21619,7 +21619,7 @@
       <c r="N310" t="inlineStr"/>
       <c r="O310" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -21684,7 +21684,7 @@
       <c r="N311" t="inlineStr"/>
       <c r="O311" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -21749,7 +21749,7 @@
       <c r="N312" t="inlineStr"/>
       <c r="O312" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -21818,7 +21818,7 @@
       <c r="N313" t="inlineStr"/>
       <c r="O313" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -21891,7 +21891,7 @@
       </c>
       <c r="O314" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -21956,7 +21956,7 @@
       <c r="N315" t="inlineStr"/>
       <c r="O315" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -22021,7 +22021,7 @@
       <c r="N316" t="inlineStr"/>
       <c r="O316" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -22094,7 +22094,7 @@
       </c>
       <c r="O317" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -22163,7 +22163,7 @@
       <c r="N318" t="inlineStr"/>
       <c r="O318" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -22228,7 +22228,7 @@
       <c r="N319" t="inlineStr"/>
       <c r="O319" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -22297,7 +22297,7 @@
       <c r="N320" t="inlineStr"/>
       <c r="O320" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -22370,7 +22370,7 @@
       </c>
       <c r="O321" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -22439,7 +22439,7 @@
       <c r="N322" t="inlineStr"/>
       <c r="O322" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -22508,7 +22508,7 @@
       </c>
       <c r="O323" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -22581,7 +22581,7 @@
       </c>
       <c r="O324" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -22650,7 +22650,7 @@
       <c r="N325" t="inlineStr"/>
       <c r="O325" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -22697,7 +22697,7 @@
       <c r="N326" t="inlineStr"/>
       <c r="O326" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -22766,7 +22766,7 @@
       <c r="N327" t="inlineStr"/>
       <c r="O327" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -22839,7 +22839,7 @@
       </c>
       <c r="O328" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -22912,7 +22912,7 @@
       </c>
       <c r="O329" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -22985,7 +22985,7 @@
       </c>
       <c r="O330" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -23054,7 +23054,7 @@
       <c r="N331" t="inlineStr"/>
       <c r="O331" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -23127,7 +23127,7 @@
       </c>
       <c r="O332" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -23196,7 +23196,7 @@
       <c r="N333" t="inlineStr"/>
       <c r="O333" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -23269,7 +23269,7 @@
       </c>
       <c r="O334" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -23338,7 +23338,7 @@
       <c r="N335" t="inlineStr"/>
       <c r="O335" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -23403,7 +23403,7 @@
       <c r="N336" t="inlineStr"/>
       <c r="O336" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -23476,7 +23476,7 @@
       </c>
       <c r="O337" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -23549,7 +23549,7 @@
       </c>
       <c r="O338" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -23618,7 +23618,7 @@
       <c r="N339" t="inlineStr"/>
       <c r="O339" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -23691,7 +23691,7 @@
       </c>
       <c r="O340" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -23754,7 +23754,7 @@
       <c r="N341" t="inlineStr"/>
       <c r="O341" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -23827,7 +23827,7 @@
       </c>
       <c r="O342" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -23900,7 +23900,7 @@
       </c>
       <c r="O343" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -23973,7 +23973,7 @@
       </c>
       <c r="O344" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -24046,7 +24046,7 @@
       </c>
       <c r="O345" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -24119,7 +24119,7 @@
       </c>
       <c r="O346" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -24192,7 +24192,7 @@
       </c>
       <c r="O347" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -24257,7 +24257,7 @@
       <c r="N348" t="inlineStr"/>
       <c r="O348" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -24322,7 +24322,7 @@
       <c r="N349" t="inlineStr"/>
       <c r="O349" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -24391,7 +24391,7 @@
       <c r="N350" t="inlineStr"/>
       <c r="O350" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -24460,7 +24460,7 @@
       <c r="N351" t="inlineStr"/>
       <c r="O351" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -24533,7 +24533,7 @@
       </c>
       <c r="O352" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -24606,7 +24606,7 @@
       </c>
       <c r="O353" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -24671,7 +24671,7 @@
       <c r="N354" t="inlineStr"/>
       <c r="O354" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -24740,7 +24740,7 @@
       <c r="N355" t="inlineStr"/>
       <c r="O355" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -24813,7 +24813,7 @@
       </c>
       <c r="O356" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -24886,7 +24886,7 @@
       </c>
       <c r="O357" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -24959,7 +24959,7 @@
       </c>
       <c r="O358" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -25028,7 +25028,7 @@
       <c r="N359" t="inlineStr"/>
       <c r="O359" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -25101,7 +25101,7 @@
       </c>
       <c r="O360" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -25172,7 +25172,7 @@
       </c>
       <c r="O361" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -25245,7 +25245,7 @@
       </c>
       <c r="O362" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -25318,7 +25318,7 @@
       </c>
       <c r="O363" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -25391,7 +25391,7 @@
       </c>
       <c r="O364" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -25464,7 +25464,7 @@
       </c>
       <c r="O365" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -25537,7 +25537,7 @@
       </c>
       <c r="O366" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -25602,7 +25602,7 @@
       <c r="N367" t="inlineStr"/>
       <c r="O367" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -25675,7 +25675,7 @@
       </c>
       <c r="O368" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -25748,7 +25748,7 @@
       </c>
       <c r="O369" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -25821,7 +25821,7 @@
       </c>
       <c r="O370" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -25890,7 +25890,7 @@
       <c r="N371" t="inlineStr"/>
       <c r="O371" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -25961,7 +25961,7 @@
       </c>
       <c r="O372" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -26034,7 +26034,7 @@
       </c>
       <c r="O373" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -26107,7 +26107,7 @@
       </c>
       <c r="O374" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -26176,7 +26176,7 @@
       <c r="N375" t="inlineStr"/>
       <c r="O375" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -26249,7 +26249,7 @@
       </c>
       <c r="O376" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -26322,7 +26322,7 @@
       </c>
       <c r="O377" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -26387,7 +26387,7 @@
       <c r="N378" t="inlineStr"/>
       <c r="O378" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -26450,7 +26450,7 @@
       <c r="N379" t="inlineStr"/>
       <c r="O379" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -26519,7 +26519,7 @@
       <c r="N380" t="inlineStr"/>
       <c r="O380" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -26592,7 +26592,7 @@
       </c>
       <c r="O381" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -26661,7 +26661,7 @@
       <c r="N382" t="inlineStr"/>
       <c r="O382" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -26734,7 +26734,7 @@
       </c>
       <c r="O383" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -26799,7 +26799,7 @@
       <c r="N384" t="inlineStr"/>
       <c r="O384" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -26872,7 +26872,7 @@
       </c>
       <c r="O385" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -26945,7 +26945,7 @@
       </c>
       <c r="O386" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -27018,7 +27018,7 @@
       </c>
       <c r="O387" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -27091,7 +27091,7 @@
       </c>
       <c r="O388" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -27156,7 +27156,7 @@
       <c r="N389" t="inlineStr"/>
       <c r="O389" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -27229,7 +27229,7 @@
       </c>
       <c r="O390" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -27302,7 +27302,7 @@
       </c>
       <c r="O391" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -27375,7 +27375,7 @@
       </c>
       <c r="O392" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -27448,7 +27448,7 @@
       </c>
       <c r="O393" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -27521,7 +27521,7 @@
       </c>
       <c r="O394" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -27584,7 +27584,7 @@
       <c r="N395" t="inlineStr"/>
       <c r="O395" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -27653,7 +27653,7 @@
       <c r="N396" t="inlineStr"/>
       <c r="O396" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -27726,7 +27726,7 @@
       </c>
       <c r="O397" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -27795,7 +27795,7 @@
       <c r="N398" t="inlineStr"/>
       <c r="O398" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -27858,7 +27858,7 @@
       <c r="N399" t="inlineStr"/>
       <c r="O399" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -27931,7 +27931,7 @@
       </c>
       <c r="O400" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -28000,7 +28000,7 @@
       <c r="N401" t="inlineStr"/>
       <c r="O401" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -28073,7 +28073,7 @@
       </c>
       <c r="O402" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -28146,7 +28146,7 @@
       </c>
       <c r="O403" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -28219,7 +28219,7 @@
       </c>
       <c r="O404" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -28284,7 +28284,7 @@
       <c r="N405" t="inlineStr"/>
       <c r="O405" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -28353,7 +28353,7 @@
       <c r="N406" t="inlineStr"/>
       <c r="O406" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -28426,7 +28426,7 @@
       </c>
       <c r="O407" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -28499,7 +28499,7 @@
       </c>
       <c r="O408" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -28564,7 +28564,7 @@
       <c r="N409" t="inlineStr"/>
       <c r="O409" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -28637,7 +28637,7 @@
       </c>
       <c r="O410" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -28710,7 +28710,7 @@
       </c>
       <c r="O411" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -28779,7 +28779,7 @@
       <c r="N412" t="inlineStr"/>
       <c r="O412" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -28848,7 +28848,7 @@
       <c r="N413" t="inlineStr"/>
       <c r="O413" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -28921,7 +28921,7 @@
       </c>
       <c r="O414" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -28990,7 +28990,7 @@
       </c>
       <c r="O415" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -29063,7 +29063,7 @@
       </c>
       <c r="O416" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -29136,7 +29136,7 @@
       </c>
       <c r="O417" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -29205,7 +29205,7 @@
       <c r="N418" t="inlineStr"/>
       <c r="O418" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -29278,7 +29278,7 @@
       </c>
       <c r="O419" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -29351,7 +29351,7 @@
       </c>
       <c r="O420" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -29424,7 +29424,7 @@
       </c>
       <c r="O421" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -29477,7 +29477,7 @@
       <c r="N422" t="inlineStr"/>
       <c r="O422" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -29542,7 +29542,7 @@
       <c r="N423" t="inlineStr"/>
       <c r="O423" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -29613,7 +29613,7 @@
       </c>
       <c r="O424" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -29686,7 +29686,7 @@
       </c>
       <c r="O425" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -29755,7 +29755,7 @@
       <c r="N426" t="inlineStr"/>
       <c r="O426" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -29824,7 +29824,7 @@
       <c r="N427" t="inlineStr"/>
       <c r="O427" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -29889,7 +29889,7 @@
       <c r="N428" t="inlineStr"/>
       <c r="O428" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -29962,7 +29962,7 @@
       </c>
       <c r="O429" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -30035,7 +30035,7 @@
       </c>
       <c r="O430" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -30084,7 +30084,7 @@
       <c r="N431" t="inlineStr"/>
       <c r="O431" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -30153,7 +30153,7 @@
       <c r="N432" t="inlineStr"/>
       <c r="O432" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -30226,7 +30226,7 @@
       </c>
       <c r="O433" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -30299,7 +30299,7 @@
       </c>
       <c r="O434" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -30366,7 +30366,7 @@
       <c r="N435" t="inlineStr"/>
       <c r="O435" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -30435,7 +30435,7 @@
       <c r="N436" t="inlineStr"/>
       <c r="O436" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -30504,7 +30504,7 @@
       <c r="N437" t="inlineStr"/>
       <c r="O437" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -30577,7 +30577,7 @@
       </c>
       <c r="O438" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -30650,7 +30650,7 @@
       </c>
       <c r="O439" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -30723,7 +30723,7 @@
       </c>
       <c r="O440" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -30796,7 +30796,7 @@
       </c>
       <c r="O441" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -30867,7 +30867,7 @@
       </c>
       <c r="O442" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -30936,7 +30936,7 @@
       <c r="N443" t="inlineStr"/>
       <c r="O443" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -31009,7 +31009,7 @@
       </c>
       <c r="O444" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -31082,7 +31082,7 @@
       </c>
       <c r="O445" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -31155,7 +31155,7 @@
       </c>
       <c r="O446" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -31228,7 +31228,7 @@
       </c>
       <c r="O447" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -31301,7 +31301,7 @@
       </c>
       <c r="O448" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -31374,7 +31374,7 @@
       </c>
       <c r="O449" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -31445,7 +31445,7 @@
       </c>
       <c r="O450" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -31518,7 +31518,7 @@
       </c>
       <c r="O451" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -31587,7 +31587,7 @@
       <c r="N452" t="inlineStr"/>
       <c r="O452" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -31656,7 +31656,7 @@
       <c r="N453" t="inlineStr"/>
       <c r="O453" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -31719,7 +31719,7 @@
       <c r="N454" t="inlineStr"/>
       <c r="O454" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -31788,7 +31788,7 @@
       <c r="N455" t="inlineStr"/>
       <c r="O455" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -31861,7 +31861,7 @@
       </c>
       <c r="O456" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -31934,7 +31934,7 @@
       </c>
       <c r="O457" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -32001,7 +32001,7 @@
       <c r="N458" t="inlineStr"/>
       <c r="O458" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -32070,7 +32070,7 @@
       <c r="N459" t="inlineStr"/>
       <c r="O459" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -32139,7 +32139,7 @@
       <c r="N460" t="inlineStr"/>
       <c r="O460" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -32208,7 +32208,7 @@
       <c r="N461" t="inlineStr"/>
       <c r="O461" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -32273,7 +32273,7 @@
       <c r="N462" t="inlineStr"/>
       <c r="O462" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -32340,7 +32340,7 @@
       <c r="N463" t="inlineStr"/>
       <c r="O463" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -32393,7 +32393,7 @@
       <c r="N464" t="inlineStr"/>
       <c r="O464" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -32466,7 +32466,7 @@
       </c>
       <c r="O465" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -32539,7 +32539,7 @@
       </c>
       <c r="O466" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -32612,7 +32612,7 @@
       </c>
       <c r="O467" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -32685,7 +32685,7 @@
       </c>
       <c r="O468" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -32752,7 +32752,7 @@
       <c r="N469" t="inlineStr"/>
       <c r="O469" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -32817,7 +32817,7 @@
       <c r="N470" t="inlineStr"/>
       <c r="O470" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -32870,7 +32870,7 @@
       <c r="N471" t="inlineStr"/>
       <c r="O471" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -32943,7 +32943,7 @@
       </c>
       <c r="O472" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -33016,7 +33016,7 @@
       </c>
       <c r="O473" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -33089,7 +33089,7 @@
       </c>
       <c r="O474" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -33158,7 +33158,7 @@
       <c r="N475" t="inlineStr"/>
       <c r="O475" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -33223,7 +33223,7 @@
       <c r="N476" t="inlineStr"/>
       <c r="O476" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -33292,7 +33292,7 @@
       <c r="N477" t="inlineStr"/>
       <c r="O477" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -33357,7 +33357,7 @@
       <c r="N478" t="inlineStr"/>
       <c r="O478" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -33430,7 +33430,7 @@
       </c>
       <c r="O479" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -33503,7 +33503,7 @@
       </c>
       <c r="O480" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -33572,7 +33572,7 @@
       </c>
       <c r="O481" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -33641,7 +33641,7 @@
       <c r="N482" t="inlineStr"/>
       <c r="O482" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -33714,7 +33714,7 @@
       </c>
       <c r="O483" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -33787,7 +33787,7 @@
       </c>
       <c r="O484" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -33860,7 +33860,7 @@
       </c>
       <c r="O485" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -33933,7 +33933,7 @@
       </c>
       <c r="O486" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -34006,7 +34006,7 @@
       </c>
       <c r="O487" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -34079,7 +34079,7 @@
       </c>
       <c r="O488" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -34152,7 +34152,7 @@
       </c>
       <c r="O489" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -34203,7 +34203,7 @@
       <c r="N490" t="inlineStr"/>
       <c r="O490" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -34276,7 +34276,7 @@
       </c>
       <c r="O491" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -34341,7 +34341,7 @@
       <c r="N492" t="inlineStr"/>
       <c r="O492" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -34406,7 +34406,7 @@
       <c r="N493" t="inlineStr"/>
       <c r="O493" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -34479,7 +34479,7 @@
       </c>
       <c r="O494" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -34552,7 +34552,7 @@
       </c>
       <c r="O495" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -34625,7 +34625,7 @@
       </c>
       <c r="O496" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -34698,7 +34698,7 @@
       </c>
       <c r="O497" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -34769,7 +34769,7 @@
       </c>
       <c r="O498" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -34842,7 +34842,7 @@
       </c>
       <c r="O499" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -34905,7 +34905,7 @@
       <c r="N500" t="inlineStr"/>
       <c r="O500" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -34978,7 +34978,7 @@
       </c>
       <c r="O501" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -35051,7 +35051,7 @@
       </c>
       <c r="O502" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -35120,7 +35120,7 @@
       <c r="N503" t="inlineStr"/>
       <c r="O503" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -35193,7 +35193,7 @@
       </c>
       <c r="O504" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -35260,7 +35260,7 @@
       <c r="N505" t="inlineStr"/>
       <c r="O505" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -35331,7 +35331,7 @@
       </c>
       <c r="O506" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -35388,7 +35388,7 @@
       </c>
       <c r="O507" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -35455,7 +35455,7 @@
       <c r="N508" t="inlineStr"/>
       <c r="O508" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -35520,7 +35520,7 @@
       <c r="N509" t="inlineStr"/>
       <c r="O509" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -35593,7 +35593,7 @@
       </c>
       <c r="O510" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -35662,7 +35662,7 @@
       <c r="N511" t="inlineStr"/>
       <c r="O511" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -35735,7 +35735,7 @@
       </c>
       <c r="O512" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -35804,7 +35804,7 @@
       </c>
       <c r="O513" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -35873,7 +35873,7 @@
       </c>
       <c r="O514" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -35938,7 +35938,7 @@
       <c r="N515" t="inlineStr"/>
       <c r="O515" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -36011,7 +36011,7 @@
       </c>
       <c r="O516" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -36080,7 +36080,7 @@
       <c r="N517" t="inlineStr"/>
       <c r="O517" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -36153,7 +36153,7 @@
       </c>
       <c r="O518" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -36226,7 +36226,7 @@
       </c>
       <c r="O519" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -36299,7 +36299,7 @@
       </c>
       <c r="O520" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -36372,7 +36372,7 @@
       </c>
       <c r="O521" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -36441,7 +36441,7 @@
       </c>
       <c r="O522" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -36512,7 +36512,7 @@
       </c>
       <c r="O523" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -36585,7 +36585,7 @@
       </c>
       <c r="O524" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -36656,7 +36656,7 @@
       </c>
       <c r="O525" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -36721,7 +36721,7 @@
       <c r="N526" t="inlineStr"/>
       <c r="O526" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -36786,7 +36786,7 @@
       <c r="N527" t="inlineStr"/>
       <c r="O527" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -36859,7 +36859,7 @@
       </c>
       <c r="O528" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -36932,7 +36932,7 @@
       </c>
       <c r="O529" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -37003,7 +37003,7 @@
       </c>
       <c r="O530" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -37076,7 +37076,7 @@
       </c>
       <c r="O531" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -37149,7 +37149,7 @@
       </c>
       <c r="O532" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -37218,7 +37218,7 @@
       <c r="N533" t="inlineStr"/>
       <c r="O533" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -37281,7 +37281,7 @@
       <c r="N534" t="inlineStr"/>
       <c r="O534" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -37348,7 +37348,7 @@
       <c r="N535" t="inlineStr"/>
       <c r="O535" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -37417,7 +37417,7 @@
       <c r="N536" t="inlineStr"/>
       <c r="O536" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -37482,7 +37482,7 @@
       <c r="N537" t="inlineStr"/>
       <c r="O537" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -37533,7 +37533,7 @@
       <c r="N538" t="inlineStr"/>
       <c r="O538" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -37606,7 +37606,7 @@
       </c>
       <c r="O539" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -37679,7 +37679,7 @@
       </c>
       <c r="O540" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -37748,7 +37748,7 @@
       <c r="N541" t="inlineStr"/>
       <c r="O541" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -37815,7 +37815,7 @@
       </c>
       <c r="O542" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -37888,7 +37888,7 @@
       </c>
       <c r="O543" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -37957,7 +37957,7 @@
       </c>
       <c r="O544" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -38024,7 +38024,7 @@
       <c r="N545" t="inlineStr"/>
       <c r="O545" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -38093,7 +38093,7 @@
       <c r="N546" t="inlineStr"/>
       <c r="O546" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -38166,7 +38166,7 @@
       </c>
       <c r="O547" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -38239,7 +38239,7 @@
       </c>
       <c r="O548" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -38312,7 +38312,7 @@
       </c>
       <c r="O549" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -38381,7 +38381,7 @@
       <c r="N550" t="inlineStr"/>
       <c r="O550" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -38450,7 +38450,7 @@
       </c>
       <c r="O551" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -38517,7 +38517,7 @@
       <c r="N552" t="inlineStr"/>
       <c r="O552" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -38584,7 +38584,7 @@
       </c>
       <c r="O553" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -38649,7 +38649,7 @@
       <c r="N554" t="inlineStr"/>
       <c r="O554" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -38722,7 +38722,7 @@
       </c>
       <c r="O555" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -38795,7 +38795,7 @@
       </c>
       <c r="O556" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -38862,7 +38862,7 @@
       <c r="N557" t="inlineStr"/>
       <c r="O557" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -38933,7 +38933,7 @@
       </c>
       <c r="O558" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -39000,7 +39000,7 @@
       <c r="N559" t="inlineStr"/>
       <c r="O559" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -39069,7 +39069,7 @@
       <c r="N560" t="inlineStr"/>
       <c r="O560" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -39142,7 +39142,7 @@
       </c>
       <c r="O561" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -39213,7 +39213,7 @@
       </c>
       <c r="O562" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -39282,7 +39282,7 @@
       </c>
       <c r="O563" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -39353,7 +39353,7 @@
       </c>
       <c r="O564" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -39420,7 +39420,7 @@
       <c r="N565" t="inlineStr"/>
       <c r="O565" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -39491,7 +39491,7 @@
       </c>
       <c r="O566" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -39556,7 +39556,7 @@
       <c r="N567" t="inlineStr"/>
       <c r="O567" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -39619,7 +39619,7 @@
       <c r="N568" t="inlineStr"/>
       <c r="O568" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
@@ -39684,7 +39684,7 @@
       <c r="N569" t="inlineStr"/>
       <c r="O569" t="inlineStr">
         <is>
-          <t>2022-12-13 18:19:20</t>
+          <t>2022-12-13 20:51:16</t>
         </is>
       </c>
     </row>
